--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.70889999999999</v>
+        <v>-21.54599999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.72440000000001</v>
+        <v>-22.683</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.24539999999999</v>
+        <v>-19.85769999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.22670000000001</v>
+        <v>-12.0729</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6971</v>
+        <v>-11.00139999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.73350000000002</v>
+        <v>17.34070000000003</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.705499999999997</v>
+        <v>-8.641999999999998</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.071300000000003</v>
+        <v>-8.008800000000003</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.8835</v>
+        <v>-14.74659999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.6206</v>
+        <v>-21.56819999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.099500000000006</v>
+        <v>-9.177300000000004</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.679099999999995</v>
+        <v>-9.035399999999996</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.03809999999999</v>
+        <v>-18.9406</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.1908</v>
+        <v>-11.8466</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.90330000000001</v>
+        <v>-11.8487</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.2008</v>
+        <v>-12.0847</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.040200000000002</v>
+        <v>-8.4579</v>
       </c>
       <c r="E22" t="n">
-        <v>16.2797</v>
+        <v>16.7226</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.04210000000001</v>
+        <v>-11.72620000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.1612</v>
+        <v>-22.04839999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,19 +921,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.94139999999999</v>
+        <v>-21.76359999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.47</v>
+        <v>-11.7127</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.18740000000001</v>
+        <v>17.23710000000001</v>
       </c>
     </row>
     <row r="30">
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.09069999999998</v>
+        <v>-21.2283</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.31100000000001</v>
+        <v>-11.49500000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.6027</v>
+        <v>17.4145</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.571599999999995</v>
+        <v>-8.736599999999994</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.1809</v>
+        <v>-20.4875</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.08319999999999</v>
+        <v>-12.2354</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.48069999999999</v>
+        <v>-12.57309999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.32470000000001</v>
+        <v>17.31660000000002</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.7858</v>
+        <v>-13.93659999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.29249999999999</v>
+        <v>-13.55929999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.05620000000001</v>
+        <v>-21.95670000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.81579999999999</v>
+        <v>-13.8597</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.637700000000001</v>
+        <v>-8.521800000000001</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.59020000000001</v>
+        <v>17.52630000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.67759999999999</v>
+        <v>-13.86629999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.966499999999996</v>
+        <v>-8.011699999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.2006</v>
+        <v>-22.1325</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-13.0951</v>
+        <v>-13.02539999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.08839999999999</v>
+        <v>-22.07529999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.69420000000002</v>
+        <v>-22.69700000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.0591</v>
+        <v>-21.9738</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.63110000000001</v>
+        <v>15.74160000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.0911</v>
+        <v>-21.996</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-22.1959</v>
+        <v>-22.13530000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-13.4489</v>
+        <v>-13.52969999999999</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.9619</v>
+        <v>-11.0073</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.78060000000001</v>
+        <v>17.73070000000002</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.41810000000002</v>
+        <v>18.50040000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-21.13</v>
+        <v>-20.96419999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1681,12 +1681,12 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.48410000000001</v>
+        <v>17.4019</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-22.02999999999998</v>
+        <v>-22.15919999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.366</v>
+        <v>-11.02940000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.55049999999999</v>
+        <v>-13.32349999999998</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.31959999999999</v>
+        <v>16.36789999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1992,19 +1992,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-22.09239999999999</v>
+        <v>-21.90469999999999</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-12.82039999999999</v>
+        <v>-11.7125</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.19820000000001</v>
+        <v>18.07440000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.1708</v>
+        <v>-8.062900000000003</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.111</v>
+        <v>-11.20410000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.345499999999996</v>
+        <v>-8.146399999999995</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.21</v>
+        <v>-22.18229999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.94340000000001</v>
+        <v>16.7677</v>
       </c>
     </row>
     <row r="102">
